--- a/Documentation/Design Analysis/ActivityChange RollbackAnalysis.xlsx
+++ b/Documentation/Design Analysis/ActivityChange RollbackAnalysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theod\Documents\Git\WeeklyReview\Documentation\Design Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14569207-8031-4A02-A0C1-DBAA9F535FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DD1B23-B120-4330-8DC2-8411F44199BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{FC44FF1F-09FD-4F19-B1DB-BA525A069443}"/>
+    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="15720" xr2:uid="{FC44FF1F-09FD-4F19-B1DB-BA525A069443}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="28">
   <si>
     <t>Entries</t>
   </si>
@@ -108,6 +108,18 @@
   </si>
   <si>
     <t>New Entry is Added</t>
+  </si>
+  <si>
+    <t>New entry without same Activity Added</t>
+  </si>
+  <si>
+    <t>No new Entry Added</t>
+  </si>
+  <si>
+    <t>New entry with same Activity Added</t>
+  </si>
+  <si>
+    <t>New entry with same Activity and one without Added</t>
   </si>
 </sst>
 </file>
@@ -179,7 +191,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -224,6 +236,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -232,11 +253,8 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
@@ -250,6 +268,12 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent6" xfId="4" builtinId="49"/>
@@ -674,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B2C700-84BA-44BC-860C-AA9E471A0047}">
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="M64" sqref="M64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,21 +712,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="G1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="14"/>
+      <c r="J1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1"/>
+      <c r="K1" s="14"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -857,13 +881,13 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
       <c r="G9">
         <v>7</v>
       </c>
@@ -932,7 +956,7 @@
       <c r="D13" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="13" t="b">
+      <c r="E13" s="12" t="b">
         <v>1</v>
       </c>
     </row>
@@ -946,7 +970,7 @@
       <c r="C14" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="13" t="b">
+      <c r="E14" s="12" t="b">
         <v>1</v>
       </c>
     </row>
@@ -968,52 +992,52 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>6</v>
-      </c>
-      <c r="B16" s="3">
+      <c r="A16" s="2">
+        <v>6</v>
+      </c>
+      <c r="B16" s="2">
         <v>12</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="3" t="b">
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>7</v>
-      </c>
-      <c r="B17" s="3">
-        <v>13</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3" t="b">
+      <c r="A17" s="2">
+        <v>7</v>
+      </c>
+      <c r="B17" s="2">
+        <v>13</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="G19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="G19" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -1230,54 +1254,54 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>8</v>
-      </c>
-      <c r="B28" s="3">
+      <c r="A28" s="2">
+        <v>8</v>
+      </c>
+      <c r="B28" s="2">
         <v>12</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="3" t="b">
+      <c r="C28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>9</v>
-      </c>
-      <c r="B29" s="3">
-        <v>13</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="3" t="b">
+      <c r="A29" s="2">
+        <v>9</v>
+      </c>
+      <c r="B29" s="2">
+        <v>13</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="G31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="G31" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -1494,171 +1518,189 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>8</v>
-      </c>
-      <c r="B40" s="3">
+      <c r="A40" s="2">
+        <v>8</v>
+      </c>
+      <c r="B40" s="2">
         <v>12</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="3" t="b">
+      <c r="C40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>9</v>
-      </c>
-      <c r="B41" s="3">
-        <v>13</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" s="13" t="b">
+      <c r="A41" s="2">
+        <v>9</v>
+      </c>
+      <c r="B41" s="2">
+        <v>13</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="12" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>10</v>
       </c>
-      <c r="B42" s="2">
-        <v>13</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="B42" s="1">
+        <v>13</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
+      <c r="A46" s="3">
         <v>3</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="4">
         <v>12</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="6" t="b">
+      <c r="C46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
-        <v>6</v>
-      </c>
-      <c r="B47" s="8">
+      <c r="A47" s="6">
+        <v>6</v>
+      </c>
+      <c r="B47" s="7">
         <v>12</v>
       </c>
-      <c r="C47" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="9" t="b">
+      <c r="C47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="10">
-        <v>8</v>
-      </c>
-      <c r="B48" s="11">
+      <c r="A48" s="9">
+        <v>9</v>
+      </c>
+      <c r="B48" s="10">
         <v>12</v>
       </c>
-      <c r="C48" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="12" t="b">
+      <c r="C48" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="11" t="b">
         <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>22</v>
-      </c>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
-        <v>4</v>
-      </c>
-      <c r="B51" s="5">
-        <v>13</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="5"/>
-      <c r="E51" s="6" t="b">
+      <c r="A51" s="3">
+        <v>4</v>
+      </c>
+      <c r="B51" s="4">
+        <v>13</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="7">
-        <v>7</v>
-      </c>
-      <c r="B52" s="8">
-        <v>13</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="8"/>
-      <c r="E52" s="9" t="b">
+      <c r="A52" s="6">
+        <v>7</v>
+      </c>
+      <c r="B52" s="7">
+        <v>13</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="7"/>
+      <c r="E52" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="7">
-        <v>9</v>
-      </c>
-      <c r="B53" s="8">
-        <v>13</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E53" s="14" t="b">
+      <c r="A53" s="6">
+        <v>9</v>
+      </c>
+      <c r="B53" s="7">
+        <v>13</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="10">
-        <v>9</v>
-      </c>
-      <c r="B54" s="11">
-        <v>13</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E54" s="12" t="b">
+      <c r="A54" s="9">
+        <v>10</v>
+      </c>
+      <c r="B54" s="10">
+        <v>13</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="11" t="b">
         <v>0</v>
       </c>
       <c r="F54" t="s">
@@ -1666,61 +1708,163 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
+      <c r="A56" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
         <v>3</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B57" s="4">
         <v>12</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="7">
-        <v>6</v>
-      </c>
-      <c r="B57" s="8">
+      <c r="C57" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="6">
+        <v>6</v>
+      </c>
+      <c r="B58" s="7">
         <v>12</v>
       </c>
-      <c r="C57" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="10">
-        <v>9</v>
-      </c>
-      <c r="B58" s="11">
+      <c r="C58" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="6">
+        <v>8</v>
+      </c>
+      <c r="B59" s="7">
         <v>12</v>
       </c>
-      <c r="C58" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="F58" t="s">
-        <v>23</v>
+      <c r="C59" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>4</v>
+      </c>
+      <c r="B62" s="4">
+        <v>13</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="E62" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="6">
+        <v>7</v>
+      </c>
+      <c r="B63" s="7">
+        <v>13</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="7"/>
+      <c r="E63" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="6">
+        <v>9</v>
+      </c>
+      <c r="B64" s="7">
+        <v>13</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="6">
+        <v>10</v>
+      </c>
+      <c r="B65" s="7">
+        <v>13</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="7"/>
+      <c r="E65" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="6">
+        <v>11</v>
+      </c>
+      <c r="B66" s="7">
+        <v>13</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="7"/>
+      <c r="E66" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A61:E61"/>
     <mergeCell ref="A31:E31"/>
     <mergeCell ref="G31:K31"/>
     <mergeCell ref="G1:H1"/>

--- a/Documentation/Design Analysis/ActivityChange RollbackAnalysis.xlsx
+++ b/Documentation/Design Analysis/ActivityChange RollbackAnalysis.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theod\Documents\Git\WeeklyReview\Documentation\Design Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DD1B23-B120-4330-8DC2-8411F44199BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4CBADF-AAD7-4405-897F-278670781ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="15720" xr2:uid="{FC44FF1F-09FD-4F19-B1DB-BA525A069443}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{FC44FF1F-09FD-4F19-B1DB-BA525A069443}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="New Dataset" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
   <si>
     <t>Entries</t>
   </si>
@@ -120,13 +122,79 @@
   </si>
   <si>
     <t>New entry with same Activity and one without Added</t>
+  </si>
+  <si>
+    <t>Database For Testing</t>
+  </si>
+  <si>
+    <t>Tv</t>
+  </si>
+  <si>
+    <t>DB with Ids</t>
+  </si>
+  <si>
+    <t>DB with Names</t>
+  </si>
+  <si>
+    <t>Resulting DB</t>
+  </si>
+  <si>
+    <t>Times</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Breakfast</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>Case Sports</t>
+  </si>
+  <si>
+    <t>Case Foods</t>
+  </si>
+  <si>
+    <t>Case Movies</t>
+  </si>
+  <si>
+    <t>Movie</t>
+  </si>
+  <si>
+    <t>Series</t>
+  </si>
+  <si>
+    <t>Case School</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>Snack</t>
+  </si>
+  <si>
+    <t>Arts</t>
+  </si>
+  <si>
+    <t>Diner</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,8 +230,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,8 +273,24 @@
         <fgColor theme="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -245,15 +344,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
@@ -268,21 +428,334 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="6" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Accent6" xfId="4" builtinId="49"/>
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Input" xfId="5" builtinId="20"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="6" builtinId="21"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -296,6 +769,176 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{66D393A6-29D1-4486-AECE-03CE2C36D888}" name="Table22" displayName="Table22" ref="A4:E7" totalsRowShown="0" tableBorderDxfId="11" dataCellStyle="Normal">
+  <autoFilter ref="A4:E7" xr:uid="{66D393A6-29D1-4486-AECE-03CE2C36D888}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{AFF2BB61-E55F-4C31-BD4D-346E1748E6F7}" name="id" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{DC667381-E772-4694-91CC-B1B547CDEF25}" name="Time" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{9401F4C2-D2B8-4ECD-8C22-DBBEDEBB8FA5}" name="Activity 1" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{41BB8478-8258-4395-B277-F8E871644BC5}" name="Activity 2" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{1712ABAD-CEC0-461A-9C97-F09660371A0A}" name="Deleted" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{18EE5605-57E5-498E-84AA-EE26A389B9DB}" name="Table28" displayName="Table28" ref="G2:H9" totalsRowShown="0">
+  <autoFilter ref="G2:H9" xr:uid="{D3A68182-B091-4C3B-96A2-80DBD72B2A45}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{359CE6CE-1C5B-4793-A801-EB8A52010DBD}" name="Id"/>
+    <tableColumn id="2" xr3:uid="{A1BED265-4F1B-488A-AD0C-9A4A2BEC97A8}" name="Name"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{3BB49421-932F-4C87-B217-78B03A302A5D}" name="Table39" displayName="Table39" ref="J2:K3" totalsRowShown="0">
+  <autoFilter ref="J2:K3" xr:uid="{9B082C47-7C36-4049-9DA0-B81F5D17DBC0}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{43117578-5A23-49A7-A622-4EA510F119A4}" name="From"/>
+    <tableColumn id="2" xr3:uid="{3A95DDBB-67C8-4488-A5F1-7846FDD9E2C1}" name="To"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{4CA75484-73D0-453A-A345-D7326B8F79FD}" name="Table1510" displayName="Table1510" ref="A20:E29" totalsRowShown="0">
+  <autoFilter ref="A20:E29" xr:uid="{0415D072-B3A6-4311-830E-FE9CDB8DA90B}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{554B8F7E-92C1-41B9-B6B3-3C16CC9385FF}" name="id"/>
+    <tableColumn id="4" xr3:uid="{5AE6F550-D9CF-4048-A4E4-3EA2587B46DD}" name="Time"/>
+    <tableColumn id="2" xr3:uid="{BE129581-7CEA-447B-B4C9-309326399821}" name="Activity 1"/>
+    <tableColumn id="3" xr3:uid="{89E7311C-1314-441A-B501-8840D5F05A1A}" name="Activity 2"/>
+    <tableColumn id="5" xr3:uid="{5400006B-8EE9-4F5A-A55F-6C5A7314A0DF}" name="Deleted"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{AC4B21FE-9BBF-42B9-8839-E731AD17716D}" name="Table15614" displayName="Table15614" ref="G20:K25" totalsRowShown="0">
+  <autoFilter ref="G20:K25" xr:uid="{ABD48B9B-73E5-4179-87DB-2214C861B633}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{3E6577E4-BE90-42FC-9632-5FFE89116849}" name="id"/>
+    <tableColumn id="4" xr3:uid="{B66828E6-68EA-4EC8-8795-AF24CB7C1E22}" name="Time"/>
+    <tableColumn id="2" xr3:uid="{9CB77429-96BB-4972-BB12-3168AB46AC19}" name="Activity 1"/>
+    <tableColumn id="3" xr3:uid="{831115ED-2566-4020-A36D-008D9263A25E}" name="Activity 2"/>
+    <tableColumn id="5" xr3:uid="{859DF698-54C4-49C2-B859-43536FB4908D}" name="Deleted"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{7D52C100-358E-435F-88DC-8A2D43CD781E}" name="Table151115" displayName="Table151115" ref="A32:E42" totalsRowShown="0">
+  <autoFilter ref="A32:E42" xr:uid="{4CD3DAC9-E0B2-43D6-BE1B-AB58A120C6E2}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{AA056688-1E4A-470D-BB46-231CFA26544A}" name="id"/>
+    <tableColumn id="4" xr3:uid="{AC93E3D1-FD01-4311-AB90-731BB69C9981}" name="Time"/>
+    <tableColumn id="2" xr3:uid="{2C0AC34D-3823-450D-9B6D-15D9FB67FBE0}" name="Activity 1"/>
+    <tableColumn id="3" xr3:uid="{FECC2CAD-5267-411B-8046-C2D628276CAC}" name="Activity 2"/>
+    <tableColumn id="5" xr3:uid="{6ADE6A31-43A5-4471-90F7-026AEECB4164}" name="Deleted"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{C897079D-35D3-49FE-B170-7CFDC00C0DC5}" name="Table1561216" displayName="Table1561216" ref="G32:K37" totalsRowShown="0">
+  <autoFilter ref="G32:K37" xr:uid="{AE7382F0-D995-42D7-A49B-5120AEEE6D92}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{AA68EA7C-0DC4-445D-B623-014E7DF14A0C}" name="id"/>
+    <tableColumn id="4" xr3:uid="{7D5AD971-02F9-441C-B48B-C9EE50F8FD50}" name="Time"/>
+    <tableColumn id="2" xr3:uid="{16FED718-637C-4E10-A0F9-5A8A2A433B95}" name="Activity 1"/>
+    <tableColumn id="3" xr3:uid="{CC231DE9-DAC1-4144-AFD6-B4AD0FD1CDB0}" name="Activity 2"/>
+    <tableColumn id="5" xr3:uid="{E4D7B934-8CD2-46BA-97CC-244AB22221A7}" name="Deleted"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{3EDE27C3-3EE3-4F7E-ABF0-B386F352BBF1}" name="Table1217" displayName="Table1217" ref="A10:E17" totalsRowShown="0">
+  <autoFilter ref="A10:E17" xr:uid="{674686D7-D346-457D-8E31-537620D69279}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{72B3DA54-A938-4508-B3E4-88DA8E9F570F}" name="id"/>
+    <tableColumn id="2" xr3:uid="{867D51A8-A2A8-4D04-AD9E-12EDC7053BA9}" name="Time"/>
+    <tableColumn id="3" xr3:uid="{72FA945E-F7A9-4B01-AB09-8F0E3F0CEC92}" name="Activity 1"/>
+    <tableColumn id="4" xr3:uid="{F3860791-9578-4177-8BC8-581D09EEB239}" name="Activity 2"/>
+    <tableColumn id="5" xr3:uid="{BBB70E71-06F1-40E1-BAEC-B85BEBAD26E2}" name="Deleted"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{5FD6AF5A-B0EE-4D5D-8035-F68CA1D800A6}" name="Table15111519" displayName="Table15111519" ref="A46:E55" totalsRowShown="0">
+  <autoFilter ref="A46:E55" xr:uid="{5FD6AF5A-B0EE-4D5D-8035-F68CA1D800A6}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{651D2BD8-C0F1-4761-9CEB-F6F6B2ED5E82}" name="id"/>
+    <tableColumn id="4" xr3:uid="{26520D2F-3F17-44DF-A33C-1A379459FBC6}" name="Time"/>
+    <tableColumn id="2" xr3:uid="{FB3FF463-8861-49B6-B324-F1548ED36BBE}" name="Activity 1"/>
+    <tableColumn id="3" xr3:uid="{E7061326-2450-4AA5-BA81-FCC124A7E566}" name="Activity 2"/>
+    <tableColumn id="5" xr3:uid="{705CAB91-3A49-44BE-9964-2163A0A4B062}" name="Deleted"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{15F7613A-2679-4583-8F0A-C68D34ED0B3A}" name="Table1511151920" displayName="Table1511151920" ref="G46:K55" totalsRowShown="0">
+  <autoFilter ref="G46:K55" xr:uid="{15F7613A-2679-4583-8F0A-C68D34ED0B3A}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{BD780E08-B6D5-42BA-818B-53BDD3B7383C}" name="id"/>
+    <tableColumn id="4" xr3:uid="{E7B9BC69-E884-4EDC-88C8-5D7D204BAEF8}" name="Time"/>
+    <tableColumn id="2" xr3:uid="{5738DF53-2A5D-427E-BA05-DBA108E9DFFA}" name="Activity 1"/>
+    <tableColumn id="3" xr3:uid="{B9639EA7-0FAD-4B26-97EC-380A30C5E86D}" name="Activity 2"/>
+    <tableColumn id="5" xr3:uid="{D0D39FFC-DFD2-474D-99B7-421C140F13E9}" name="Deleted"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{8D43A812-0079-474F-8729-EA112EABBFC5}" name="Table151115192021" displayName="Table151115192021" ref="M46:Q56" totalsRowShown="0">
+  <autoFilter ref="M46:Q56" xr:uid="{8D43A812-0079-474F-8729-EA112EABBFC5}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{CC1158BF-E594-4AB3-B591-EF71C8FD45E7}" name="id"/>
+    <tableColumn id="4" xr3:uid="{1A851172-F011-4683-B51A-D606C6AFDA78}" name="Time"/>
+    <tableColumn id="2" xr3:uid="{F35F792C-E75F-4D5E-81A6-E2F6DF836823}" name="Activity 1"/>
+    <tableColumn id="3" xr3:uid="{0728D9D6-27A3-4E3D-AADD-365F796EBBCE}" name="Activity 2"/>
+    <tableColumn id="5" xr3:uid="{9F9C1343-6504-46A5-8D72-006AEAD08D48}" name="Deleted"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{F45C35D2-6834-4B67-9CC7-A1375CD4CA1A}" name="Table3924" displayName="Table3924" ref="G4:H5" totalsRowShown="0">
+  <autoFilter ref="G4:H5" xr:uid="{F45C35D2-6834-4B67-9CC7-A1375CD4CA1A}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{07218A63-6768-4F0A-B743-1A9A16323A38}" name="From" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{AD764FE0-A82A-4761-9EE3-A2B9ED34D196}" name="To" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{9C811654-3F94-49CE-AEB0-580DCE814B51}" name="Table21" displayName="Table21" ref="S46:T51" totalsRowShown="0">
+  <autoFilter ref="S46:T51" xr:uid="{9C811654-3F94-49CE-AEB0-580DCE814B51}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{72C54E4B-D9F5-4740-A60A-84589FAF2B9D}" name="Times"/>
+    <tableColumn id="2" xr3:uid="{EADABA70-DBC1-48E5-A2F4-F0DBAD065A0A}" name="Change"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{917B3C9C-5CFA-46C1-8457-751BE23DBF67}" name="Table1" displayName="Table1" ref="A2:E7" totalsRowShown="0">
   <autoFilter ref="A2:E7" xr:uid="{917B3C9C-5CFA-46C1-8457-751BE23DBF67}"/>
   <tableColumns count="5">
@@ -309,7 +952,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D3A68182-B091-4C3B-96A2-80DBD72B2A45}" name="Table2" displayName="Table2" ref="G2:H9" totalsRowShown="0">
   <autoFilter ref="G2:H9" xr:uid="{D3A68182-B091-4C3B-96A2-80DBD72B2A45}"/>
   <tableColumns count="2">
@@ -320,7 +963,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9B082C47-7C36-4049-9DA0-B81F5D17DBC0}" name="Table3" displayName="Table3" ref="J2:K3" totalsRowShown="0">
   <autoFilter ref="J2:K3" xr:uid="{9B082C47-7C36-4049-9DA0-B81F5D17DBC0}"/>
   <tableColumns count="2">
@@ -331,7 +974,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0415D072-B3A6-4311-830E-FE9CDB8DA90B}" name="Table15" displayName="Table15" ref="A20:E29" totalsRowShown="0">
   <autoFilter ref="A20:E29" xr:uid="{0415D072-B3A6-4311-830E-FE9CDB8DA90B}"/>
   <tableColumns count="5">
@@ -345,7 +988,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{ABD48B9B-73E5-4179-87DB-2214C861B633}" name="Table156" displayName="Table156" ref="G20:K25" totalsRowShown="0">
   <autoFilter ref="G20:K25" xr:uid="{ABD48B9B-73E5-4179-87DB-2214C861B633}"/>
   <tableColumns count="5">
@@ -359,7 +1002,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{4CD3DAC9-E0B2-43D6-BE1B-AB58A120C6E2}" name="Table1511" displayName="Table1511" ref="A32:E42" totalsRowShown="0">
   <autoFilter ref="A32:E42" xr:uid="{4CD3DAC9-E0B2-43D6-BE1B-AB58A120C6E2}"/>
   <tableColumns count="5">
@@ -373,7 +1016,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{AE7382F0-D995-42D7-A49B-5120AEEE6D92}" name="Table15612" displayName="Table15612" ref="G32:K37" totalsRowShown="0">
   <autoFilter ref="G32:K37" xr:uid="{AE7382F0-D995-42D7-A49B-5120AEEE6D92}"/>
   <tableColumns count="5">
@@ -387,7 +1030,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{674686D7-D346-457D-8E31-537620D69279}" name="Table12" displayName="Table12" ref="A10:E17" totalsRowShown="0">
   <autoFilter ref="A10:E17" xr:uid="{674686D7-D346-457D-8E31-537620D69279}"/>
   <tableColumns count="5">
@@ -396,6 +1039,95 @@
     <tableColumn id="3" xr3:uid="{F25502F1-1F5B-4B7E-8FF8-5523688DDC69}" name="Activity 1"/>
     <tableColumn id="4" xr3:uid="{962729E3-8C9E-4601-A9C5-CB5DD30505F5}" name="Activity 2"/>
     <tableColumn id="5" xr3:uid="{48A46C2A-A6BA-4BFD-B170-E01364C8C49B}" name="Deleted"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{26AC216C-CE45-47E1-926D-7F9E77DEE636}" name="Table2227" displayName="Table2227" ref="A11:E15" totalsRowShown="0" tableBorderDxfId="8" dataCellStyle="Normal">
+  <autoFilter ref="A11:E15" xr:uid="{26AC216C-CE45-47E1-926D-7F9E77DEE636}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{6C67288D-8418-4528-8E63-2E376B702A0A}" name="id" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{8089C1E6-FBA8-4435-BE7C-2A70B5142DB8}" name="Time" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{8601C5D9-C1C6-4212-A6E2-E47C6C92EB73}" name="Activity 1" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{0950AC38-7287-450A-B3E2-10259C8E0D2C}" name="Activity 2" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{124A7D1C-69DB-43FA-998B-84AAA33A2B69}" name="Deleted" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{55CBADA6-0D02-47DE-9F96-E6F190F51D17}" name="Table392428" displayName="Table392428" ref="G11:H12" totalsRowShown="0">
+  <autoFilter ref="G11:H12" xr:uid="{55CBADA6-0D02-47DE-9F96-E6F190F51D17}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{2B8D679D-A8C0-4800-AB87-9739CA299B6D}" name="From" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{918DEA73-BE07-4C67-B558-42308F5492D4}" name="To" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{148D51AF-5E14-4843-888E-D4A58731A14C}" name="Table222729" displayName="Table222729" ref="A19:E22" totalsRowShown="0" tableBorderDxfId="5" dataCellStyle="Normal">
+  <autoFilter ref="A19:E22" xr:uid="{148D51AF-5E14-4843-888E-D4A58731A14C}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{1E8A003C-6999-4AB4-B5E7-18A2E49743A5}" name="id" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{60F7D491-7616-4FFE-A2AD-3A8C71543852}" name="Time" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{825E01C6-3330-439D-AFC7-67D5786FB399}" name="Activity 1" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{A18D4CE6-F662-493D-A320-0DA7E7BC6FC4}" name="Activity 2" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{CF176B5D-6A44-4437-866D-4681EFDD7DF1}" name="Deleted" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{450594FF-16AE-4D5F-B840-52824FBED6F9}" name="Table39242830" displayName="Table39242830" ref="G19:H20" totalsRowShown="0">
+  <autoFilter ref="G19:H20" xr:uid="{450594FF-16AE-4D5F-B840-52824FBED6F9}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{F7308CED-34B2-4DAD-A89F-F4CC20D65358}" name="From" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{D2C5A42B-CAC2-4465-9F22-2760A7DF1588}" name="To" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{FC019FDD-2033-4C62-8D89-44583C9C330E}" name="Table22272931" displayName="Table22272931" ref="A26:E30" totalsRowShown="0" tableBorderDxfId="2" dataCellStyle="Normal">
+  <autoFilter ref="A26:E30" xr:uid="{FC019FDD-2033-4C62-8D89-44583C9C330E}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{5B7E6B1F-B61A-422A-BB53-BD97724A664D}" name="id" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{4F312F08-7C96-41D1-AA9C-CEC5F4CD7EA9}" name="Time" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{1B8B4598-BC28-4028-AE99-4B8BDAEEB4C0}" name="Activity 1" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{12FF4931-1268-43CE-9EB1-75B44C1E4E81}" name="Activity 2" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{9B2FFA47-EAA2-4BD4-8BFD-8B0906B2EAB3}" name="Deleted" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{EE074F04-E651-4CDE-8449-1391ECA3DA5D}" name="Table3924283032" displayName="Table3924283032" ref="G26:H27" totalsRowShown="0">
+  <autoFilter ref="G26:H27" xr:uid="{EE074F04-E651-4CDE-8449-1391ECA3DA5D}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{9DC1CEF9-D1BF-4912-ABBF-5A524B273EFC}" name="From" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{4D8EC67B-2D3A-4D9B-BD9A-45022C870ECC}" name="To" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{67E13AC7-B4A3-4483-AC36-7D6B19503612}" name="Table17" displayName="Table17" ref="A2:E7" totalsRowShown="0">
+  <autoFilter ref="A2:E7" xr:uid="{917B3C9C-5CFA-46C1-8457-751BE23DBF67}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{834A0EAE-78EB-4EF0-A1DE-74684BB04E6E}" name="id"/>
+    <tableColumn id="4" xr3:uid="{EE710C0E-8A93-4BAD-994E-D7D7BE1CA840}" name="Time"/>
+    <tableColumn id="2" xr3:uid="{F02C6818-D4CD-49B6-9E5B-8E32E4A46FED}" name="Activity 1"/>
+    <tableColumn id="3" xr3:uid="{B958165C-5857-4D46-8076-1A84D0D8B76F}" name="Activity 2"/>
+    <tableColumn id="5" xr3:uid="{E96CCE80-CBC1-4076-9EE6-8DC4EB867C36}" name="Deleted"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -697,11 +1429,542 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B2C700-84BA-44BC-860C-AA9E471A0047}">
-  <dimension ref="A1:K66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD881B02-8271-4F65-995B-7407D1D85D99}">
+  <dimension ref="A2:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="M64" sqref="M64"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="4" width="9.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="G3" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="24"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="25">
+        <v>3</v>
+      </c>
+      <c r="B7" s="25">
+        <v>10</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="G10" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="24"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="G18" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="24"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="K24">
+        <v>10</v>
+      </c>
+      <c r="L24" t="s">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>36</v>
+      </c>
+      <c r="P24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="G25" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="24"/>
+      <c r="K25">
+        <v>11</v>
+      </c>
+      <c r="L25" t="s">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>36</v>
+      </c>
+      <c r="O25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26">
+        <v>12</v>
+      </c>
+      <c r="L26" t="s">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>36</v>
+      </c>
+      <c r="P26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="K27">
+        <v>13</v>
+      </c>
+      <c r="L27" t="s">
+        <v>49</v>
+      </c>
+      <c r="M27" t="s">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>36</v>
+      </c>
+      <c r="P27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>13</v>
+      </c>
+      <c r="C28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>14</v>
+      </c>
+      <c r="L28" t="s">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>36</v>
+      </c>
+      <c r="P28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="25">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>13</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="25"/>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A9:H9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="8">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5FEA84F-E133-4B26-9C7E-F947F55A6435}">
+  <dimension ref="A1:X56"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="M53" sqref="M53:Q53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,21 +1975,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="G1" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="14"/>
-      <c r="J1" s="14" t="s">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="G1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="15"/>
+      <c r="J1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="14"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -881,13 +2144,13 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
       <c r="G9">
         <v>7</v>
       </c>
@@ -1024,20 +2287,20 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="G19" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="G19" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -1288,20 +2551,20 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="G31" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="G31" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -1335,7 +2598,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -1367,7 +2630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
@@ -1393,7 +2656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
@@ -1425,7 +2688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4</v>
       </c>
@@ -1454,7 +2717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>5</v>
       </c>
@@ -1486,7 +2749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>6</v>
       </c>
@@ -1503,7 +2766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>7</v>
       </c>
@@ -1517,7 +2780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>8</v>
       </c>
@@ -1534,7 +2797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>9</v>
       </c>
@@ -1551,7 +2814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>10</v>
       </c>
@@ -1568,14 +2831,1466 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A44" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="19"/>
+      <c r="S44" s="19"/>
+      <c r="T44" s="19"/>
+      <c r="U44" s="19"/>
+      <c r="V44" s="19"/>
+      <c r="W44" s="19"/>
+      <c r="X44" s="19"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
+      <c r="G45" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="M45" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="N45" s="15"/>
+      <c r="O45" s="15"/>
+      <c r="P45" s="15"/>
+      <c r="Q45" s="15"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1</v>
+      </c>
+      <c r="H46" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" t="s">
+        <v>2</v>
+      </c>
+      <c r="J46" t="s">
+        <v>3</v>
+      </c>
+      <c r="K46" t="s">
+        <v>16</v>
+      </c>
+      <c r="M46" t="s">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>15</v>
+      </c>
+      <c r="O46" t="s">
+        <v>2</v>
+      </c>
+      <c r="P46" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>16</v>
+      </c>
+      <c r="S46" t="s">
+        <v>33</v>
+      </c>
+      <c r="T46" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>10</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>6</v>
+      </c>
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>10</v>
+      </c>
+      <c r="I47" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" t="b">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>10</v>
+      </c>
+      <c r="O47" t="s">
+        <v>4</v>
+      </c>
+      <c r="P47" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="b">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>10</v>
+      </c>
+      <c r="T47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48">
+        <v>11</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="E48" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <v>11</v>
+      </c>
+      <c r="I48" t="s">
+        <v>6</v>
+      </c>
+      <c r="K48" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>2</v>
+      </c>
+      <c r="N48">
+        <v>11</v>
+      </c>
+      <c r="O48" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q48" t="b">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>11</v>
+      </c>
+      <c r="T48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B49">
+        <v>12</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49" t="b">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
+      </c>
+      <c r="H49">
+        <v>12</v>
+      </c>
+      <c r="I49" t="s">
+        <v>7</v>
+      </c>
+      <c r="J49" t="s">
+        <v>8</v>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>3</v>
+      </c>
+      <c r="N49">
+        <v>12</v>
+      </c>
+      <c r="O49" t="s">
+        <v>7</v>
+      </c>
+      <c r="P49" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q49" t="b">
+        <v>1</v>
+      </c>
+      <c r="S49">
+        <v>12</v>
+      </c>
+      <c r="T49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>4</v>
+      </c>
+      <c r="B50">
+        <v>13</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="E50" t="b">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>4</v>
+      </c>
+      <c r="H50">
+        <v>13</v>
+      </c>
+      <c r="I50" t="s">
+        <v>7</v>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>4</v>
+      </c>
+      <c r="N50">
+        <v>13</v>
+      </c>
+      <c r="O50" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q50" t="b">
+        <v>1</v>
+      </c>
+      <c r="S50">
+        <v>13</v>
+      </c>
+      <c r="T50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>5</v>
+      </c>
+      <c r="B51">
+        <v>14</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>7</v>
+      </c>
+      <c r="E51" t="b">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>5</v>
+      </c>
+      <c r="H51">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>9</v>
+      </c>
+      <c r="J51" t="s">
+        <v>29</v>
+      </c>
+      <c r="K51" t="b">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>5</v>
+      </c>
+      <c r="N51">
+        <v>14</v>
+      </c>
+      <c r="O51" t="s">
+        <v>9</v>
+      </c>
+      <c r="P51" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q51" t="b">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>14</v>
+      </c>
+      <c r="T51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>6</v>
+      </c>
+      <c r="B52">
+        <v>12</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="E52" t="b">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>6</v>
+      </c>
+      <c r="H52">
+        <v>12</v>
+      </c>
+      <c r="I52" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" t="s">
+        <v>9</v>
+      </c>
+      <c r="K52" t="b">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>6</v>
+      </c>
+      <c r="N52">
+        <v>12</v>
+      </c>
+      <c r="O52" t="s">
+        <v>8</v>
+      </c>
+      <c r="P52" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>7</v>
+      </c>
+      <c r="B53">
+        <v>13</v>
+      </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
+      <c r="E53" t="b">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>7</v>
+      </c>
+      <c r="H53">
+        <v>13</v>
+      </c>
+      <c r="I53" t="s">
+        <v>9</v>
+      </c>
+      <c r="K53" t="b">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>7</v>
+      </c>
+      <c r="N53">
+        <v>13</v>
+      </c>
+      <c r="O53" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>8</v>
+      </c>
+      <c r="B54">
+        <v>12</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
+      <c r="E54" t="b">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>8</v>
+      </c>
+      <c r="H54">
+        <v>12</v>
+      </c>
+      <c r="I54" t="s">
+        <v>4</v>
+      </c>
+      <c r="J54" t="s">
+        <v>8</v>
+      </c>
+      <c r="K54" t="b">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>8</v>
+      </c>
+      <c r="N54">
+        <v>12</v>
+      </c>
+      <c r="O54" t="s">
+        <v>4</v>
+      </c>
+      <c r="P54" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>9</v>
+      </c>
+      <c r="B55">
+        <v>13</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55" t="b">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>9</v>
+      </c>
+      <c r="H55">
+        <v>13</v>
+      </c>
+      <c r="I55" t="s">
+        <v>6</v>
+      </c>
+      <c r="J55" t="s">
+        <v>9</v>
+      </c>
+      <c r="K55" t="b">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>9</v>
+      </c>
+      <c r="N55">
+        <v>13</v>
+      </c>
+      <c r="O55" t="s">
+        <v>6</v>
+      </c>
+      <c r="P55" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M56" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="N56" s="21">
+        <v>13</v>
+      </c>
+      <c r="O56" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="P56" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q56" s="22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="G45:K45"/>
+    <mergeCell ref="M45:Q45"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="A44:X44"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="G19:K19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="12">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B2C700-84BA-44BC-860C-AA9E471A0047}">
+  <dimension ref="A1:K66"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="G1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="15"/>
+      <c r="J1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="15"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>6</v>
+      </c>
+      <c r="B16" s="2">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>7</v>
+      </c>
+      <c r="B17" s="2">
+        <v>13</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="G19" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="I21" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>11</v>
+      </c>
+      <c r="I22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>8</v>
+      </c>
+      <c r="H23">
+        <v>12</v>
+      </c>
+      <c r="I23" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>9</v>
+      </c>
+      <c r="H24">
+        <v>13</v>
+      </c>
+      <c r="I24" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" t="s">
+        <v>6</v>
+      </c>
+      <c r="K24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="H25">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>8</v>
+      </c>
+      <c r="B28" s="2">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>9</v>
+      </c>
+      <c r="B29" s="2">
+        <v>13</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="G31" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>10</v>
+      </c>
+      <c r="I33" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>11</v>
+      </c>
+      <c r="I34" t="s">
+        <v>6</v>
+      </c>
+      <c r="K34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>8</v>
+      </c>
+      <c r="H35">
+        <v>12</v>
+      </c>
+      <c r="I35" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>13</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>10</v>
+      </c>
+      <c r="H36">
+        <v>13</v>
+      </c>
+      <c r="I36" t="s">
+        <v>7</v>
+      </c>
+      <c r="J36" t="s">
+        <v>6</v>
+      </c>
+      <c r="K36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+      <c r="H37">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>9</v>
+      </c>
+      <c r="J37" t="s">
+        <v>10</v>
+      </c>
+      <c r="K37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>12</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>7</v>
+      </c>
+      <c r="B39">
+        <v>13</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>8</v>
+      </c>
+      <c r="B40" s="2">
+        <v>12</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>9</v>
+      </c>
+      <c r="B41" s="2">
+        <v>13</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>10</v>
+      </c>
+      <c r="B42" s="1">
+        <v>13</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
@@ -1632,13 +4347,13 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
@@ -1708,13 +4423,13 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
@@ -1771,13 +4486,13 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="15" t="s">
+      <c r="A61" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
@@ -1861,11 +4576,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="A31:E31"/>
     <mergeCell ref="G31:K31"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
@@ -1873,6 +4583,11 @@
     <mergeCell ref="A19:E19"/>
     <mergeCell ref="G19:K19"/>
     <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="A31:E31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="8">

--- a/Documentation/Design Analysis/ActivityChange RollbackAnalysis.xlsx
+++ b/Documentation/Design Analysis/ActivityChange RollbackAnalysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theod\Documents\Git\WeeklyReview\Documentation\Design Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4CBADF-AAD7-4405-897F-278670781ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8495F9E-1CA9-4C6D-9726-A62D46C97E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{FC44FF1F-09FD-4F19-B1DB-BA525A069443}"/>
+    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="15720" xr2:uid="{FC44FF1F-09FD-4F19-B1DB-BA525A069443}"/>
   </bookViews>
   <sheets>
     <sheet name="New Dataset" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="52">
   <si>
     <t>Entries</t>
   </si>
@@ -188,6 +188,12 @@
   </si>
   <si>
     <t>Diner</t>
+  </si>
+  <si>
+    <t>Hour</t>
+  </si>
+  <si>
+    <t>Time -&gt;</t>
   </si>
 </sst>
 </file>
@@ -413,7 +419,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
@@ -428,20 +434,8 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="3" applyBorder="1"/>
@@ -451,7 +445,18 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="6" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Accent6" xfId="4" builtinId="49"/>
@@ -1430,10 +1435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD881B02-8271-4F65-995B-7407D1D85D99}">
-  <dimension ref="A2:P30"/>
+  <dimension ref="A2:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1441,32 +1446,42 @@
     <col min="3" max="4" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="G3" s="24" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="G3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="24"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="20"/>
+      <c r="L3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1488,8 +1503,20 @@
       <c r="H4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="M4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1502,14 +1529,26 @@
       <c r="E5" t="b">
         <v>1</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="14" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>11</v>
+      </c>
+      <c r="M5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1519,51 +1558,92 @@
       <c r="C6" t="s">
         <v>42</v>
       </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="25">
+      <c r="E6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>12</v>
+      </c>
+      <c r="M6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="1">
         <v>10</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>13</v>
+      </c>
+      <c r="M7" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>14</v>
+      </c>
+      <c r="M8" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="G10" s="24" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="G10" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="24"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1586,7 +1666,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1599,14 +1679,14 @@
       <c r="E12" t="b">
         <v>1</v>
       </c>
-      <c r="G12" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G12" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1620,7 +1700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1637,7 +1717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -1654,32 +1734,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="G18" s="24" t="s">
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="G18" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="24"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -1702,7 +1782,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1715,14 +1795,14 @@
       <c r="E20" t="b">
         <v>1</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="H20" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1736,7 +1816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1753,56 +1833,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="K24">
-        <v>10</v>
-      </c>
-      <c r="L24" t="s">
-        <v>4</v>
-      </c>
-      <c r="N24" t="s">
-        <v>36</v>
-      </c>
-      <c r="P24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="G25" s="24" t="s">
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="G25" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="24"/>
-      <c r="K25">
-        <v>11</v>
-      </c>
-      <c r="L25" t="s">
-        <v>4</v>
-      </c>
-      <c r="N25" t="s">
-        <v>36</v>
-      </c>
-      <c r="O25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H25" s="20"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -1824,20 +1880,8 @@
       <c r="H26" t="s">
         <v>18</v>
       </c>
-      <c r="K26">
-        <v>12</v>
-      </c>
-      <c r="L26" t="s">
-        <v>4</v>
-      </c>
-      <c r="N26" t="s">
-        <v>36</v>
-      </c>
-      <c r="P26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1850,29 +1894,14 @@
       <c r="E27" t="b">
         <v>1</v>
       </c>
-      <c r="G27" s="17" t="s">
+      <c r="G27" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="16" t="s">
+      <c r="H27" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="K27">
-        <v>13</v>
-      </c>
-      <c r="L27" t="s">
-        <v>49</v>
-      </c>
-      <c r="M27" t="s">
-        <v>4</v>
-      </c>
-      <c r="N27" t="s">
-        <v>36</v>
-      </c>
-      <c r="P27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1885,20 +1914,8 @@
       <c r="E28" t="b">
         <v>1</v>
       </c>
-      <c r="K28">
-        <v>14</v>
-      </c>
-      <c r="L28" t="s">
-        <v>4</v>
-      </c>
-      <c r="N28" t="s">
-        <v>36</v>
-      </c>
-      <c r="P28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
@@ -1915,35 +1932,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>4</v>
       </c>
       <c r="B30">
         <v>13</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="25"/>
       <c r="E30" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A9:H9"/>
     <mergeCell ref="A17:H17"/>
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="A24:H24"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="8">
@@ -1975,21 +1992,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="G1" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="15"/>
-      <c r="J1" s="15" t="s">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="G1" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="21"/>
+      <c r="J1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="15"/>
+      <c r="K1" s="21"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2144,13 +2161,13 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
       <c r="G9">
         <v>7</v>
       </c>
@@ -2287,20 +2304,20 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="G19" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="G19" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -2551,20 +2568,20 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="G31" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="G31" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -2832,55 +2849,55 @@
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="19"/>
-      <c r="O44" s="19"/>
-      <c r="P44" s="19"/>
-      <c r="Q44" s="19"/>
-      <c r="R44" s="19"/>
-      <c r="S44" s="19"/>
-      <c r="T44" s="19"/>
-      <c r="U44" s="19"/>
-      <c r="V44" s="19"/>
-      <c r="W44" s="19"/>
-      <c r="X44" s="19"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="23"/>
+      <c r="M44" s="23"/>
+      <c r="N44" s="23"/>
+      <c r="O44" s="23"/>
+      <c r="P44" s="23"/>
+      <c r="Q44" s="23"/>
+      <c r="R44" s="23"/>
+      <c r="S44" s="23"/>
+      <c r="T44" s="23"/>
+      <c r="U44" s="23"/>
+      <c r="V44" s="23"/>
+      <c r="W44" s="23"/>
+      <c r="X44" s="23"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="G45" s="15" t="s">
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="G45" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
-      <c r="M45" s="15" t="s">
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="M45" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="N45" s="15"/>
-      <c r="O45" s="15"/>
-      <c r="P45" s="15"/>
-      <c r="Q45" s="15"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="21"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -3362,36 +3379,36 @@
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="M56" s="20" t="s">
+      <c r="M56" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="N56" s="21">
-        <v>13</v>
-      </c>
-      <c r="O56" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="P56" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q56" s="22" t="b">
+      <c r="N56" s="17">
+        <v>13</v>
+      </c>
+      <c r="O56" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="P56" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q56" s="18" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="G19:K19"/>
     <mergeCell ref="A45:E45"/>
     <mergeCell ref="G45:K45"/>
     <mergeCell ref="M45:Q45"/>
     <mergeCell ref="A31:E31"/>
     <mergeCell ref="G31:K31"/>
     <mergeCell ref="A44:X44"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="G19:K19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="12">
@@ -3427,21 +3444,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="G1" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="15"/>
-      <c r="J1" s="15" t="s">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="G1" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="21"/>
+      <c r="J1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="15"/>
+      <c r="K1" s="21"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -3596,13 +3613,13 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
       <c r="G9">
         <v>7</v>
       </c>
@@ -3739,20 +3756,20 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="G19" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="G19" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -4003,20 +4020,20 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="G31" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="G31" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -4284,13 +4301,13 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
@@ -4347,13 +4364,13 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
@@ -4423,13 +4440,13 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
@@ -4486,13 +4503,13 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
@@ -4576,6 +4593,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="A31:E31"/>
     <mergeCell ref="G31:K31"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
@@ -4583,11 +4605,6 @@
     <mergeCell ref="A19:E19"/>
     <mergeCell ref="G19:K19"/>
     <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="A31:E31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="8">

--- a/Documentation/Design Analysis/ActivityChange RollbackAnalysis.xlsx
+++ b/Documentation/Design Analysis/ActivityChange RollbackAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theod\Documents\Git\WeeklyReview\Documentation\Design Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8495F9E-1CA9-4C6D-9726-A62D46C97E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81625BB6-1547-4AAC-8D77-9129372CDC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="15720" xr2:uid="{FC44FF1F-09FD-4F19-B1DB-BA525A069443}"/>
   </bookViews>
@@ -1437,8 +1437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD881B02-8271-4F65-995B-7407D1D85D99}">
   <dimension ref="A2:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1575,9 +1575,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>3</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="B7" s="1">
         <v>10</v>
       </c>
@@ -1668,10 +1666,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -1688,10 +1686,10 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -1702,10 +1700,10 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -1718,11 +1716,9 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>4</v>
-      </c>
+      <c r="A15" s="1"/>
       <c r="B15" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>7</v>
@@ -1784,10 +1780,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B20">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
         <v>36</v>
@@ -1804,10 +1800,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B21">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
@@ -1818,10 +1814,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B22">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -1883,10 +1879,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B27">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
         <v>44</v>
@@ -1903,10 +1899,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B28">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C28" t="s">
         <v>45</v>
@@ -1917,10 +1913,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B29">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
         <v>48</v>
@@ -1934,10 +1930,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B30">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
         <v>45</v>

--- a/Documentation/Design Analysis/ActivityChange RollbackAnalysis.xlsx
+++ b/Documentation/Design Analysis/ActivityChange RollbackAnalysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theod\Documents\Git\WeeklyReview\Documentation\Design Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81625BB6-1547-4AAC-8D77-9129372CDC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9FBDD5-F3D5-4E19-87A1-0BE503155309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="15720" xr2:uid="{FC44FF1F-09FD-4F19-B1DB-BA525A069443}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{FC44FF1F-09FD-4F19-B1DB-BA525A069443}"/>
   </bookViews>
   <sheets>
     <sheet name="New Dataset" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="55">
   <si>
     <t>Entries</t>
   </si>
@@ -194,6 +194,15 @@
   </si>
   <si>
     <t>Time -&gt;</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Case Trip - Blank insert after change</t>
   </si>
 </sst>
 </file>
@@ -467,7 +476,80 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="6" builtinId="21"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -774,7 +856,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{66D393A6-29D1-4486-AECE-03CE2C36D888}" name="Table22" displayName="Table22" ref="A4:E7" totalsRowShown="0" tableBorderDxfId="11" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{66D393A6-29D1-4486-AECE-03CE2C36D888}" name="Table22" displayName="Table22" ref="A4:E7" totalsRowShown="0" tableBorderDxfId="14" dataCellStyle="Normal">
   <autoFilter ref="A4:E7" xr:uid="{66D393A6-29D1-4486-AECE-03CE2C36D888}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{AFF2BB61-E55F-4C31-BD4D-346E1748E6F7}" name="id" dataCellStyle="Normal"/>
@@ -788,6 +870,31 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{03273E76-AFE0-44F1-957B-ADB9E7CC959D}" name="Table392428303233" displayName="Table392428303233" ref="G34:H35" totalsRowShown="0">
+  <autoFilter ref="G34:H35" xr:uid="{03273E76-AFE0-44F1-957B-ADB9E7CC959D}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{B28074EA-5C77-4AEC-B75B-592F8111DB29}" name="From" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{A0D4C3EA-E720-4952-B1D5-674A27B2864D}" name="To" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{67E13AC7-B4A3-4483-AC36-7D6B19503612}" name="Table17" displayName="Table17" ref="A2:E7" totalsRowShown="0">
+  <autoFilter ref="A2:E7" xr:uid="{917B3C9C-5CFA-46C1-8457-751BE23DBF67}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{834A0EAE-78EB-4EF0-A1DE-74684BB04E6E}" name="id"/>
+    <tableColumn id="4" xr3:uid="{EE710C0E-8A93-4BAD-994E-D7D7BE1CA840}" name="Time"/>
+    <tableColumn id="2" xr3:uid="{F02C6818-D4CD-49B6-9E5B-8E32E4A46FED}" name="Activity 1"/>
+    <tableColumn id="3" xr3:uid="{B958165C-5857-4D46-8076-1A84D0D8B76F}" name="Activity 2"/>
+    <tableColumn id="5" xr3:uid="{E96CCE80-CBC1-4076-9EE6-8DC4EB867C36}" name="Deleted"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{18EE5605-57E5-498E-84AA-EE26A389B9DB}" name="Table28" displayName="Table28" ref="G2:H9" totalsRowShown="0">
   <autoFilter ref="G2:H9" xr:uid="{D3A68182-B091-4C3B-96A2-80DBD72B2A45}"/>
   <tableColumns count="2">
@@ -798,7 +905,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{3BB49421-932F-4C87-B217-78B03A302A5D}" name="Table39" displayName="Table39" ref="J2:K3" totalsRowShown="0">
   <autoFilter ref="J2:K3" xr:uid="{9B082C47-7C36-4049-9DA0-B81F5D17DBC0}"/>
   <tableColumns count="2">
@@ -809,7 +916,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{4CA75484-73D0-453A-A345-D7326B8F79FD}" name="Table1510" displayName="Table1510" ref="A20:E29" totalsRowShown="0">
   <autoFilter ref="A20:E29" xr:uid="{0415D072-B3A6-4311-830E-FE9CDB8DA90B}"/>
   <tableColumns count="5">
@@ -823,7 +930,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{AC4B21FE-9BBF-42B9-8839-E731AD17716D}" name="Table15614" displayName="Table15614" ref="G20:K25" totalsRowShown="0">
   <autoFilter ref="G20:K25" xr:uid="{ABD48B9B-73E5-4179-87DB-2214C861B633}"/>
   <tableColumns count="5">
@@ -837,7 +944,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{7D52C100-358E-435F-88DC-8A2D43CD781E}" name="Table151115" displayName="Table151115" ref="A32:E42" totalsRowShown="0">
   <autoFilter ref="A32:E42" xr:uid="{4CD3DAC9-E0B2-43D6-BE1B-AB58A120C6E2}"/>
   <tableColumns count="5">
@@ -851,7 +958,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{C897079D-35D3-49FE-B170-7CFDC00C0DC5}" name="Table1561216" displayName="Table1561216" ref="G32:K37" totalsRowShown="0">
   <autoFilter ref="G32:K37" xr:uid="{AE7382F0-D995-42D7-A49B-5120AEEE6D92}"/>
   <tableColumns count="5">
@@ -865,7 +972,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{3EDE27C3-3EE3-4F7E-ABF0-B386F352BBF1}" name="Table1217" displayName="Table1217" ref="A10:E17" totalsRowShown="0">
   <autoFilter ref="A10:E17" xr:uid="{674686D7-D346-457D-8E31-537620D69279}"/>
   <tableColumns count="5">
@@ -879,7 +986,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{5FD6AF5A-B0EE-4D5D-8035-F68CA1D800A6}" name="Table15111519" displayName="Table15111519" ref="A46:E55" totalsRowShown="0">
   <autoFilter ref="A46:E55" xr:uid="{5FD6AF5A-B0EE-4D5D-8035-F68CA1D800A6}"/>
   <tableColumns count="5">
@@ -893,7 +1000,18 @@
 </table>
 </file>
 
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{F45C35D2-6834-4B67-9CC7-A1375CD4CA1A}" name="Table3924" displayName="Table3924" ref="G4:H5" totalsRowShown="0">
+  <autoFilter ref="G4:H5" xr:uid="{F45C35D2-6834-4B67-9CC7-A1375CD4CA1A}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{07218A63-6768-4F0A-B743-1A9A16323A38}" name="From" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{AD764FE0-A82A-4761-9EE3-A2B9ED34D196}" name="To" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{15F7613A-2679-4583-8F0A-C68D34ED0B3A}" name="Table1511151920" displayName="Table1511151920" ref="G46:K55" totalsRowShown="0">
   <autoFilter ref="G46:K55" xr:uid="{15F7613A-2679-4583-8F0A-C68D34ED0B3A}"/>
   <tableColumns count="5">
@@ -907,7 +1025,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{8D43A812-0079-474F-8729-EA112EABBFC5}" name="Table151115192021" displayName="Table151115192021" ref="M46:Q56" totalsRowShown="0">
   <autoFilter ref="M46:Q56" xr:uid="{8D43A812-0079-474F-8729-EA112EABBFC5}"/>
   <tableColumns count="5">
@@ -921,18 +1039,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{F45C35D2-6834-4B67-9CC7-A1375CD4CA1A}" name="Table3924" displayName="Table3924" ref="G4:H5" totalsRowShown="0">
-  <autoFilter ref="G4:H5" xr:uid="{F45C35D2-6834-4B67-9CC7-A1375CD4CA1A}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{07218A63-6768-4F0A-B743-1A9A16323A38}" name="From" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{AD764FE0-A82A-4761-9EE3-A2B9ED34D196}" name="To" dataDxfId="9"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{9C811654-3F94-49CE-AEB0-580DCE814B51}" name="Table21" displayName="Table21" ref="S46:T51" totalsRowShown="0">
   <autoFilter ref="S46:T51" xr:uid="{9C811654-3F94-49CE-AEB0-580DCE814B51}"/>
   <tableColumns count="2">
@@ -943,7 +1050,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{917B3C9C-5CFA-46C1-8457-751BE23DBF67}" name="Table1" displayName="Table1" ref="A2:E7" totalsRowShown="0">
   <autoFilter ref="A2:E7" xr:uid="{917B3C9C-5CFA-46C1-8457-751BE23DBF67}"/>
   <tableColumns count="5">
@@ -957,7 +1064,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D3A68182-B091-4C3B-96A2-80DBD72B2A45}" name="Table2" displayName="Table2" ref="G2:H9" totalsRowShown="0">
   <autoFilter ref="G2:H9" xr:uid="{D3A68182-B091-4C3B-96A2-80DBD72B2A45}"/>
   <tableColumns count="2">
@@ -968,7 +1075,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9B082C47-7C36-4049-9DA0-B81F5D17DBC0}" name="Table3" displayName="Table3" ref="J2:K3" totalsRowShown="0">
   <autoFilter ref="J2:K3" xr:uid="{9B082C47-7C36-4049-9DA0-B81F5D17DBC0}"/>
   <tableColumns count="2">
@@ -979,7 +1086,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0415D072-B3A6-4311-830E-FE9CDB8DA90B}" name="Table15" displayName="Table15" ref="A20:E29" totalsRowShown="0">
   <autoFilter ref="A20:E29" xr:uid="{0415D072-B3A6-4311-830E-FE9CDB8DA90B}"/>
   <tableColumns count="5">
@@ -993,7 +1100,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{ABD48B9B-73E5-4179-87DB-2214C861B633}" name="Table156" displayName="Table156" ref="G20:K25" totalsRowShown="0">
   <autoFilter ref="G20:K25" xr:uid="{ABD48B9B-73E5-4179-87DB-2214C861B633}"/>
   <tableColumns count="5">
@@ -1007,7 +1114,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{4CD3DAC9-E0B2-43D6-BE1B-AB58A120C6E2}" name="Table1511" displayName="Table1511" ref="A32:E42" totalsRowShown="0">
   <autoFilter ref="A32:E42" xr:uid="{4CD3DAC9-E0B2-43D6-BE1B-AB58A120C6E2}"/>
   <tableColumns count="5">
@@ -1021,7 +1128,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{AE7382F0-D995-42D7-A49B-5120AEEE6D92}" name="Table15612" displayName="Table15612" ref="G32:K37" totalsRowShown="0">
   <autoFilter ref="G32:K37" xr:uid="{AE7382F0-D995-42D7-A49B-5120AEEE6D92}"/>
   <tableColumns count="5">
@@ -1035,7 +1142,21 @@
 </table>
 </file>
 
-<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{26AC216C-CE45-47E1-926D-7F9E77DEE636}" name="Table2227" displayName="Table2227" ref="A11:E15" totalsRowShown="0" tableBorderDxfId="11" dataCellStyle="Normal">
+  <autoFilter ref="A11:E15" xr:uid="{26AC216C-CE45-47E1-926D-7F9E77DEE636}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{6C67288D-8418-4528-8E63-2E376B702A0A}" name="id" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{8089C1E6-FBA8-4435-BE7C-2A70B5142DB8}" name="Time" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{8601C5D9-C1C6-4212-A6E2-E47C6C92EB73}" name="Activity 1" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{0950AC38-7287-450A-B3E2-10259C8E0D2C}" name="Activity 2" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{124A7D1C-69DB-43FA-998B-84AAA33A2B69}" name="Deleted" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{674686D7-D346-457D-8E31-537620D69279}" name="Table12" displayName="Table12" ref="A10:E17" totalsRowShown="0">
   <autoFilter ref="A10:E17" xr:uid="{674686D7-D346-457D-8E31-537620D69279}"/>
   <tableColumns count="5">
@@ -1049,33 +1170,19 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{26AC216C-CE45-47E1-926D-7F9E77DEE636}" name="Table2227" displayName="Table2227" ref="A11:E15" totalsRowShown="0" tableBorderDxfId="8" dataCellStyle="Normal">
-  <autoFilter ref="A11:E15" xr:uid="{26AC216C-CE45-47E1-926D-7F9E77DEE636}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{6C67288D-8418-4528-8E63-2E376B702A0A}" name="id" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{8089C1E6-FBA8-4435-BE7C-2A70B5142DB8}" name="Time" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{8601C5D9-C1C6-4212-A6E2-E47C6C92EB73}" name="Activity 1" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{0950AC38-7287-450A-B3E2-10259C8E0D2C}" name="Activity 2" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{124A7D1C-69DB-43FA-998B-84AAA33A2B69}" name="Deleted" dataCellStyle="Normal"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{55CBADA6-0D02-47DE-9F96-E6F190F51D17}" name="Table392428" displayName="Table392428" ref="G11:H12" totalsRowShown="0">
   <autoFilter ref="G11:H12" xr:uid="{55CBADA6-0D02-47DE-9F96-E6F190F51D17}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{2B8D679D-A8C0-4800-AB87-9739CA299B6D}" name="From" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{918DEA73-BE07-4C67-B558-42308F5492D4}" name="To" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{2B8D679D-A8C0-4800-AB87-9739CA299B6D}" name="From" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{918DEA73-BE07-4C67-B558-42308F5492D4}" name="To" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{148D51AF-5E14-4843-888E-D4A58731A14C}" name="Table222729" displayName="Table222729" ref="A19:E22" totalsRowShown="0" tableBorderDxfId="5" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{148D51AF-5E14-4843-888E-D4A58731A14C}" name="Table222729" displayName="Table222729" ref="A19:E22" totalsRowShown="0" tableBorderDxfId="8" dataCellStyle="Normal">
   <autoFilter ref="A19:E22" xr:uid="{148D51AF-5E14-4843-888E-D4A58731A14C}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{1E8A003C-6999-4AB4-B5E7-18A2E49743A5}" name="id" dataCellStyle="Normal"/>
@@ -1092,15 +1199,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{450594FF-16AE-4D5F-B840-52824FBED6F9}" name="Table39242830" displayName="Table39242830" ref="G19:H20" totalsRowShown="0">
   <autoFilter ref="G19:H20" xr:uid="{450594FF-16AE-4D5F-B840-52824FBED6F9}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{F7308CED-34B2-4DAD-A89F-F4CC20D65358}" name="From" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{D2C5A42B-CAC2-4465-9F22-2760A7DF1588}" name="To" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{F7308CED-34B2-4DAD-A89F-F4CC20D65358}" name="From" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{D2C5A42B-CAC2-4465-9F22-2760A7DF1588}" name="To" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{FC019FDD-2033-4C62-8D89-44583C9C330E}" name="Table22272931" displayName="Table22272931" ref="A26:E30" totalsRowShown="0" tableBorderDxfId="2" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{FC019FDD-2033-4C62-8D89-44583C9C330E}" name="Table22272931" displayName="Table22272931" ref="A26:E30" totalsRowShown="0" tableBorderDxfId="5" dataCellStyle="Normal">
   <autoFilter ref="A26:E30" xr:uid="{FC019FDD-2033-4C62-8D89-44583C9C330E}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5B7E6B1F-B61A-422A-BB53-BD97724A664D}" name="id" dataCellStyle="Normal"/>
@@ -1117,22 +1224,22 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{EE074F04-E651-4CDE-8449-1391ECA3DA5D}" name="Table3924283032" displayName="Table3924283032" ref="G26:H27" totalsRowShown="0">
   <autoFilter ref="G26:H27" xr:uid="{EE074F04-E651-4CDE-8449-1391ECA3DA5D}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{9DC1CEF9-D1BF-4912-ABBF-5A524B273EFC}" name="From" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{4D8EC67B-2D3A-4D9B-BD9A-45022C870ECC}" name="To" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{9DC1CEF9-D1BF-4912-ABBF-5A524B273EFC}" name="From" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{4D8EC67B-2D3A-4D9B-BD9A-45022C870ECC}" name="To" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{67E13AC7-B4A3-4483-AC36-7D6B19503612}" name="Table17" displayName="Table17" ref="A2:E7" totalsRowShown="0">
-  <autoFilter ref="A2:E7" xr:uid="{917B3C9C-5CFA-46C1-8457-751BE23DBF67}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{22CCFD43-B819-49D9-AC6B-30F4DB8DCF4F}" name="Table2227293126" displayName="Table2227293126" ref="A34:E36" totalsRowShown="0" tableBorderDxfId="2" dataCellStyle="Normal">
+  <autoFilter ref="A34:E36" xr:uid="{22CCFD43-B819-49D9-AC6B-30F4DB8DCF4F}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{834A0EAE-78EB-4EF0-A1DE-74684BB04E6E}" name="id"/>
-    <tableColumn id="4" xr3:uid="{EE710C0E-8A93-4BAD-994E-D7D7BE1CA840}" name="Time"/>
-    <tableColumn id="2" xr3:uid="{F02C6818-D4CD-49B6-9E5B-8E32E4A46FED}" name="Activity 1"/>
-    <tableColumn id="3" xr3:uid="{B958165C-5857-4D46-8076-1A84D0D8B76F}" name="Activity 2"/>
-    <tableColumn id="5" xr3:uid="{E96CCE80-CBC1-4076-9EE6-8DC4EB867C36}" name="Deleted"/>
+    <tableColumn id="1" xr3:uid="{446A11B6-89B1-40AF-8DF1-613558082E9B}" name="id" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{5274A654-450D-4EB6-A168-0E1FC39F9DAD}" name="Time" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{C7AC8F92-ED44-4630-8203-592BB8C9D5BF}" name="Activity 1" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{1689F6E3-B889-4B97-98EF-15EE614C6BD4}" name="Activity 2" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{9D9CA8E8-F0EB-4D9F-A918-1F491BAE63AA}" name="Deleted" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1435,10 +1542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD881B02-8271-4F65-995B-7407D1D85D99}">
-  <dimension ref="A2:Q30"/>
+  <dimension ref="A2:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1942,8 +2049,99 @@
         <v>0</v>
       </c>
     </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="G33" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="20"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>13</v>
+      </c>
+      <c r="B35">
+        <v>18</v>
+      </c>
+      <c r="C35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>14</v>
+      </c>
+      <c r="B36">
+        <v>18</v>
+      </c>
+      <c r="C36" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="16">
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="G25:H25"/>
     <mergeCell ref="M3:Q3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="A10:E10"/>
@@ -1951,15 +2149,9 @@
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="G25:H25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="8">
+  <tableParts count="10">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -1968,6 +2160,8 @@
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3393,18 +3587,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="G45:K45"/>
+    <mergeCell ref="M45:Q45"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="A44:X44"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A19:E19"/>
     <mergeCell ref="G19:K19"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="G45:K45"/>
-    <mergeCell ref="M45:Q45"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="A44:X44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="12">
@@ -4589,11 +4783,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="A31:E31"/>
     <mergeCell ref="G31:K31"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
@@ -4601,6 +4790,11 @@
     <mergeCell ref="A19:E19"/>
     <mergeCell ref="G19:K19"/>
     <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="A31:E31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="8">

--- a/Documentation/Design Analysis/ActivityChange RollbackAnalysis.xlsx
+++ b/Documentation/Design Analysis/ActivityChange RollbackAnalysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theod\Documents\Git\WeeklyReview\Documentation\Design Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9FBDD5-F3D5-4E19-87A1-0BE503155309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8FF2CF-6943-40AA-82C9-AB711970AC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{FC44FF1F-09FD-4F19-B1DB-BA525A069443}"/>
+    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="15720" xr2:uid="{FC44FF1F-09FD-4F19-B1DB-BA525A069443}"/>
   </bookViews>
   <sheets>
     <sheet name="New Dataset" sheetId="3" r:id="rId1"/>
@@ -856,8 +856,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{66D393A6-29D1-4486-AECE-03CE2C36D888}" name="Table22" displayName="Table22" ref="A4:E7" totalsRowShown="0" tableBorderDxfId="14" dataCellStyle="Normal">
-  <autoFilter ref="A4:E7" xr:uid="{66D393A6-29D1-4486-AECE-03CE2C36D888}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{66D393A6-29D1-4486-AECE-03CE2C36D888}" name="Table22" displayName="Table22" ref="A3:E6" totalsRowShown="0" tableBorderDxfId="14" dataCellStyle="Normal">
+  <autoFilter ref="A3:E6" xr:uid="{66D393A6-29D1-4486-AECE-03CE2C36D888}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{AFF2BB61-E55F-4C31-BD4D-346E1748E6F7}" name="id" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{DC667381-E772-4694-91CC-B1B547CDEF25}" name="Time" dataCellStyle="Normal"/>
@@ -870,8 +870,8 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{03273E76-AFE0-44F1-957B-ADB9E7CC959D}" name="Table392428303233" displayName="Table392428303233" ref="G34:H35" totalsRowShown="0">
-  <autoFilter ref="G34:H35" xr:uid="{03273E76-AFE0-44F1-957B-ADB9E7CC959D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{03273E76-AFE0-44F1-957B-ADB9E7CC959D}" name="Table392428303233" displayName="Table392428303233" ref="G33:H34" totalsRowShown="0">
+  <autoFilter ref="G33:H34" xr:uid="{03273E76-AFE0-44F1-957B-ADB9E7CC959D}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{B28074EA-5C77-4AEC-B75B-592F8111DB29}" name="From" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{A0D4C3EA-E720-4952-B1D5-674A27B2864D}" name="To" dataDxfId="0"/>
@@ -1001,8 +1001,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{F45C35D2-6834-4B67-9CC7-A1375CD4CA1A}" name="Table3924" displayName="Table3924" ref="G4:H5" totalsRowShown="0">
-  <autoFilter ref="G4:H5" xr:uid="{F45C35D2-6834-4B67-9CC7-A1375CD4CA1A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{F45C35D2-6834-4B67-9CC7-A1375CD4CA1A}" name="Table3924" displayName="Table3924" ref="G3:H4" totalsRowShown="0">
+  <autoFilter ref="G3:H4" xr:uid="{F45C35D2-6834-4B67-9CC7-A1375CD4CA1A}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{07218A63-6768-4F0A-B743-1A9A16323A38}" name="From" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{AD764FE0-A82A-4761-9EE3-A2B9ED34D196}" name="To" dataDxfId="12"/>
@@ -1143,8 +1143,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{26AC216C-CE45-47E1-926D-7F9E77DEE636}" name="Table2227" displayName="Table2227" ref="A11:E15" totalsRowShown="0" tableBorderDxfId="11" dataCellStyle="Normal">
-  <autoFilter ref="A11:E15" xr:uid="{26AC216C-CE45-47E1-926D-7F9E77DEE636}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{26AC216C-CE45-47E1-926D-7F9E77DEE636}" name="Table2227" displayName="Table2227" ref="A10:E14" totalsRowShown="0" tableBorderDxfId="11" dataCellStyle="Normal">
+  <autoFilter ref="A10:E14" xr:uid="{26AC216C-CE45-47E1-926D-7F9E77DEE636}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{6C67288D-8418-4528-8E63-2E376B702A0A}" name="id" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{8089C1E6-FBA8-4435-BE7C-2A70B5142DB8}" name="Time" dataCellStyle="Normal"/>
@@ -1171,8 +1171,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{55CBADA6-0D02-47DE-9F96-E6F190F51D17}" name="Table392428" displayName="Table392428" ref="G11:H12" totalsRowShown="0">
-  <autoFilter ref="G11:H12" xr:uid="{55CBADA6-0D02-47DE-9F96-E6F190F51D17}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{55CBADA6-0D02-47DE-9F96-E6F190F51D17}" name="Table392428" displayName="Table392428" ref="G10:H11" totalsRowShown="0">
+  <autoFilter ref="G10:H11" xr:uid="{55CBADA6-0D02-47DE-9F96-E6F190F51D17}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{2B8D679D-A8C0-4800-AB87-9739CA299B6D}" name="From" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{918DEA73-BE07-4C67-B558-42308F5492D4}" name="To" dataDxfId="9"/>
@@ -1182,8 +1182,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{148D51AF-5E14-4843-888E-D4A58731A14C}" name="Table222729" displayName="Table222729" ref="A19:E22" totalsRowShown="0" tableBorderDxfId="8" dataCellStyle="Normal">
-  <autoFilter ref="A19:E22" xr:uid="{148D51AF-5E14-4843-888E-D4A58731A14C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{148D51AF-5E14-4843-888E-D4A58731A14C}" name="Table222729" displayName="Table222729" ref="A18:E21" totalsRowShown="0" tableBorderDxfId="8" dataCellStyle="Normal">
+  <autoFilter ref="A18:E21" xr:uid="{148D51AF-5E14-4843-888E-D4A58731A14C}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{1E8A003C-6999-4AB4-B5E7-18A2E49743A5}" name="id" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{60F7D491-7616-4FFE-A2AD-3A8C71543852}" name="Time" dataCellStyle="Normal"/>
@@ -1196,8 +1196,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{450594FF-16AE-4D5F-B840-52824FBED6F9}" name="Table39242830" displayName="Table39242830" ref="G19:H20" totalsRowShown="0">
-  <autoFilter ref="G19:H20" xr:uid="{450594FF-16AE-4D5F-B840-52824FBED6F9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{450594FF-16AE-4D5F-B840-52824FBED6F9}" name="Table39242830" displayName="Table39242830" ref="G18:H19" totalsRowShown="0">
+  <autoFilter ref="G18:H19" xr:uid="{450594FF-16AE-4D5F-B840-52824FBED6F9}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{F7308CED-34B2-4DAD-A89F-F4CC20D65358}" name="From" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{D2C5A42B-CAC2-4465-9F22-2760A7DF1588}" name="To" dataDxfId="6"/>
@@ -1207,8 +1207,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{FC019FDD-2033-4C62-8D89-44583C9C330E}" name="Table22272931" displayName="Table22272931" ref="A26:E30" totalsRowShown="0" tableBorderDxfId="5" dataCellStyle="Normal">
-  <autoFilter ref="A26:E30" xr:uid="{FC019FDD-2033-4C62-8D89-44583C9C330E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{FC019FDD-2033-4C62-8D89-44583C9C330E}" name="Table22272931" displayName="Table22272931" ref="A25:E29" totalsRowShown="0" tableBorderDxfId="5" dataCellStyle="Normal">
+  <autoFilter ref="A25:E29" xr:uid="{FC019FDD-2033-4C62-8D89-44583C9C330E}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5B7E6B1F-B61A-422A-BB53-BD97724A664D}" name="id" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{4F312F08-7C96-41D1-AA9C-CEC5F4CD7EA9}" name="Time" dataCellStyle="Normal"/>
@@ -1221,8 +1221,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{EE074F04-E651-4CDE-8449-1391ECA3DA5D}" name="Table3924283032" displayName="Table3924283032" ref="G26:H27" totalsRowShown="0">
-  <autoFilter ref="G26:H27" xr:uid="{EE074F04-E651-4CDE-8449-1391ECA3DA5D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{EE074F04-E651-4CDE-8449-1391ECA3DA5D}" name="Table3924283032" displayName="Table3924283032" ref="G25:H26" totalsRowShown="0">
+  <autoFilter ref="G25:H26" xr:uid="{EE074F04-E651-4CDE-8449-1391ECA3DA5D}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{9DC1CEF9-D1BF-4912-ABBF-5A524B273EFC}" name="From" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{4D8EC67B-2D3A-4D9B-BD9A-45022C870ECC}" name="To" dataDxfId="3"/>
@@ -1232,8 +1232,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{22CCFD43-B819-49D9-AC6B-30F4DB8DCF4F}" name="Table2227293126" displayName="Table2227293126" ref="A34:E36" totalsRowShown="0" tableBorderDxfId="2" dataCellStyle="Normal">
-  <autoFilter ref="A34:E36" xr:uid="{22CCFD43-B819-49D9-AC6B-30F4DB8DCF4F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{22CCFD43-B819-49D9-AC6B-30F4DB8DCF4F}" name="Table2227293126" displayName="Table2227293126" ref="A33:E35" totalsRowShown="0" tableBorderDxfId="2" dataCellStyle="Normal">
+  <autoFilter ref="A33:E35" xr:uid="{22CCFD43-B819-49D9-AC6B-30F4DB8DCF4F}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{446A11B6-89B1-40AF-8DF1-613558082E9B}" name="id" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{5274A654-450D-4EB6-A168-0E1FC39F9DAD}" name="Time" dataCellStyle="Normal"/>
@@ -1542,10 +1542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD881B02-8271-4F65-995B-7407D1D85D99}">
-  <dimension ref="A2:Q36"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1553,65 +1553,97 @@
     <col min="3" max="4" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+    </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
+      <c r="A2" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="G2" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="20"/>
+      <c r="L2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="G3" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="20"/>
-      <c r="L3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3">
+        <v>10</v>
+      </c>
+      <c r="M3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
+        <v>41</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="L4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M4" t="s">
         <v>4</v>
@@ -1619,31 +1651,25 @@
       <c r="O4" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" t="s">
-        <v>4</v>
+      <c r="P4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="14" t="s">
         <v>42</v>
       </c>
+      <c r="E5" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="L5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M5" t="s">
         <v>4</v>
@@ -1651,27 +1677,29 @@
       <c r="O5" t="s">
         <v>36</v>
       </c>
-      <c r="P5" t="s">
-        <v>37</v>
+      <c r="Q5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
+      <c r="C6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M6" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" t="s">
         <v>4</v>
       </c>
       <c r="O6" t="s">
@@ -1682,24 +1710,10 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="b">
-        <v>0</v>
-      </c>
       <c r="L7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M7" t="s">
-        <v>49</v>
-      </c>
-      <c r="N7" t="s">
         <v>4</v>
       </c>
       <c r="O7" t="s">
@@ -1710,90 +1724,90 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L8">
+      <c r="A8" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="G9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="M8" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="G10" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="20"/>
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12">
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -1801,218 +1815,221 @@
       <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="E13" t="b">
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>5</v>
-      </c>
-      <c r="B14">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1">
         <v>12</v>
       </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E14" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="1" t="b">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
+      <c r="A17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="G17" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="G18" s="20" t="s">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19">
         <v>14</v>
       </c>
-      <c r="H18" s="20"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
       <c r="C19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" t="s">
-        <v>18</v>
+        <v>36</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B20">
         <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B21">
         <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>47</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>8</v>
-      </c>
-      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="G24" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
+      <c r="H24" s="20"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="G25" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="20"/>
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>15</v>
+      <c r="A26">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" t="s">
-        <v>18</v>
+        <v>44</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B27">
         <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E27" t="b">
         <v>1</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B28">
         <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="D28" t="s">
+        <v>46</v>
       </c>
       <c r="E28" t="b">
         <v>1</v>
@@ -2020,135 +2037,118 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B29">
         <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>12</v>
-      </c>
-      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="G32" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="20"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
         <v>16</v>
       </c>
-      <c r="C30" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="G33" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" s="20"/>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" t="s">
-        <v>15</v>
+      <c r="A34">
+        <v>13</v>
+      </c>
+      <c r="B34">
+        <v>18</v>
       </c>
       <c r="C34" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" t="s">
-        <v>18</v>
+        <v>52</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B35">
         <v>18</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E35" t="b">
-        <v>0</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H35" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>14</v>
-      </c>
-      <c r="B36">
-        <v>18</v>
-      </c>
-      <c r="C36" t="s">
-        <v>53</v>
-      </c>
-      <c r="E36" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A8:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="10">
@@ -2170,8 +2170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5FEA84F-E133-4B26-9C7E-F947F55A6435}">
   <dimension ref="A1:X56"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="M53" sqref="M53:Q53"/>
+    <sheetView topLeftCell="A40" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentation/Design Analysis/ActivityChange RollbackAnalysis.xlsx
+++ b/Documentation/Design Analysis/ActivityChange RollbackAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theod\Documents\Git\WeeklyReview\Documentation\Design Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81625BB6-1547-4AAC-8D77-9129372CDC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8FF2CF-6943-40AA-82C9-AB711970AC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="15720" xr2:uid="{FC44FF1F-09FD-4F19-B1DB-BA525A069443}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="55">
   <si>
     <t>Entries</t>
   </si>
@@ -194,6 +194,15 @@
   </si>
   <si>
     <t>Time -&gt;</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Case Trip - Blank insert after change</t>
   </si>
 </sst>
 </file>
@@ -467,7 +476,80 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="6" builtinId="21"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -774,8 +856,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{66D393A6-29D1-4486-AECE-03CE2C36D888}" name="Table22" displayName="Table22" ref="A4:E7" totalsRowShown="0" tableBorderDxfId="11" dataCellStyle="Normal">
-  <autoFilter ref="A4:E7" xr:uid="{66D393A6-29D1-4486-AECE-03CE2C36D888}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{66D393A6-29D1-4486-AECE-03CE2C36D888}" name="Table22" displayName="Table22" ref="A3:E6" totalsRowShown="0" tableBorderDxfId="14" dataCellStyle="Normal">
+  <autoFilter ref="A3:E6" xr:uid="{66D393A6-29D1-4486-AECE-03CE2C36D888}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{AFF2BB61-E55F-4C31-BD4D-346E1748E6F7}" name="id" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{DC667381-E772-4694-91CC-B1B547CDEF25}" name="Time" dataCellStyle="Normal"/>
@@ -788,6 +870,31 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{03273E76-AFE0-44F1-957B-ADB9E7CC959D}" name="Table392428303233" displayName="Table392428303233" ref="G33:H34" totalsRowShown="0">
+  <autoFilter ref="G33:H34" xr:uid="{03273E76-AFE0-44F1-957B-ADB9E7CC959D}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{B28074EA-5C77-4AEC-B75B-592F8111DB29}" name="From" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{A0D4C3EA-E720-4952-B1D5-674A27B2864D}" name="To" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{67E13AC7-B4A3-4483-AC36-7D6B19503612}" name="Table17" displayName="Table17" ref="A2:E7" totalsRowShown="0">
+  <autoFilter ref="A2:E7" xr:uid="{917B3C9C-5CFA-46C1-8457-751BE23DBF67}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{834A0EAE-78EB-4EF0-A1DE-74684BB04E6E}" name="id"/>
+    <tableColumn id="4" xr3:uid="{EE710C0E-8A93-4BAD-994E-D7D7BE1CA840}" name="Time"/>
+    <tableColumn id="2" xr3:uid="{F02C6818-D4CD-49B6-9E5B-8E32E4A46FED}" name="Activity 1"/>
+    <tableColumn id="3" xr3:uid="{B958165C-5857-4D46-8076-1A84D0D8B76F}" name="Activity 2"/>
+    <tableColumn id="5" xr3:uid="{E96CCE80-CBC1-4076-9EE6-8DC4EB867C36}" name="Deleted"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{18EE5605-57E5-498E-84AA-EE26A389B9DB}" name="Table28" displayName="Table28" ref="G2:H9" totalsRowShown="0">
   <autoFilter ref="G2:H9" xr:uid="{D3A68182-B091-4C3B-96A2-80DBD72B2A45}"/>
   <tableColumns count="2">
@@ -798,7 +905,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{3BB49421-932F-4C87-B217-78B03A302A5D}" name="Table39" displayName="Table39" ref="J2:K3" totalsRowShown="0">
   <autoFilter ref="J2:K3" xr:uid="{9B082C47-7C36-4049-9DA0-B81F5D17DBC0}"/>
   <tableColumns count="2">
@@ -809,7 +916,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{4CA75484-73D0-453A-A345-D7326B8F79FD}" name="Table1510" displayName="Table1510" ref="A20:E29" totalsRowShown="0">
   <autoFilter ref="A20:E29" xr:uid="{0415D072-B3A6-4311-830E-FE9CDB8DA90B}"/>
   <tableColumns count="5">
@@ -823,7 +930,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{AC4B21FE-9BBF-42B9-8839-E731AD17716D}" name="Table15614" displayName="Table15614" ref="G20:K25" totalsRowShown="0">
   <autoFilter ref="G20:K25" xr:uid="{ABD48B9B-73E5-4179-87DB-2214C861B633}"/>
   <tableColumns count="5">
@@ -837,7 +944,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{7D52C100-358E-435F-88DC-8A2D43CD781E}" name="Table151115" displayName="Table151115" ref="A32:E42" totalsRowShown="0">
   <autoFilter ref="A32:E42" xr:uid="{4CD3DAC9-E0B2-43D6-BE1B-AB58A120C6E2}"/>
   <tableColumns count="5">
@@ -851,7 +958,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{C897079D-35D3-49FE-B170-7CFDC00C0DC5}" name="Table1561216" displayName="Table1561216" ref="G32:K37" totalsRowShown="0">
   <autoFilter ref="G32:K37" xr:uid="{AE7382F0-D995-42D7-A49B-5120AEEE6D92}"/>
   <tableColumns count="5">
@@ -865,7 +972,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{3EDE27C3-3EE3-4F7E-ABF0-B386F352BBF1}" name="Table1217" displayName="Table1217" ref="A10:E17" totalsRowShown="0">
   <autoFilter ref="A10:E17" xr:uid="{674686D7-D346-457D-8E31-537620D69279}"/>
   <tableColumns count="5">
@@ -879,7 +986,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{5FD6AF5A-B0EE-4D5D-8035-F68CA1D800A6}" name="Table15111519" displayName="Table15111519" ref="A46:E55" totalsRowShown="0">
   <autoFilter ref="A46:E55" xr:uid="{5FD6AF5A-B0EE-4D5D-8035-F68CA1D800A6}"/>
   <tableColumns count="5">
@@ -893,7 +1000,18 @@
 </table>
 </file>
 
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{F45C35D2-6834-4B67-9CC7-A1375CD4CA1A}" name="Table3924" displayName="Table3924" ref="G3:H4" totalsRowShown="0">
+  <autoFilter ref="G3:H4" xr:uid="{F45C35D2-6834-4B67-9CC7-A1375CD4CA1A}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{07218A63-6768-4F0A-B743-1A9A16323A38}" name="From" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{AD764FE0-A82A-4761-9EE3-A2B9ED34D196}" name="To" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{15F7613A-2679-4583-8F0A-C68D34ED0B3A}" name="Table1511151920" displayName="Table1511151920" ref="G46:K55" totalsRowShown="0">
   <autoFilter ref="G46:K55" xr:uid="{15F7613A-2679-4583-8F0A-C68D34ED0B3A}"/>
   <tableColumns count="5">
@@ -907,7 +1025,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{8D43A812-0079-474F-8729-EA112EABBFC5}" name="Table151115192021" displayName="Table151115192021" ref="M46:Q56" totalsRowShown="0">
   <autoFilter ref="M46:Q56" xr:uid="{8D43A812-0079-474F-8729-EA112EABBFC5}"/>
   <tableColumns count="5">
@@ -921,18 +1039,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{F45C35D2-6834-4B67-9CC7-A1375CD4CA1A}" name="Table3924" displayName="Table3924" ref="G4:H5" totalsRowShown="0">
-  <autoFilter ref="G4:H5" xr:uid="{F45C35D2-6834-4B67-9CC7-A1375CD4CA1A}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{07218A63-6768-4F0A-B743-1A9A16323A38}" name="From" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{AD764FE0-A82A-4761-9EE3-A2B9ED34D196}" name="To" dataDxfId="9"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{9C811654-3F94-49CE-AEB0-580DCE814B51}" name="Table21" displayName="Table21" ref="S46:T51" totalsRowShown="0">
   <autoFilter ref="S46:T51" xr:uid="{9C811654-3F94-49CE-AEB0-580DCE814B51}"/>
   <tableColumns count="2">
@@ -943,7 +1050,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{917B3C9C-5CFA-46C1-8457-751BE23DBF67}" name="Table1" displayName="Table1" ref="A2:E7" totalsRowShown="0">
   <autoFilter ref="A2:E7" xr:uid="{917B3C9C-5CFA-46C1-8457-751BE23DBF67}"/>
   <tableColumns count="5">
@@ -957,7 +1064,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D3A68182-B091-4C3B-96A2-80DBD72B2A45}" name="Table2" displayName="Table2" ref="G2:H9" totalsRowShown="0">
   <autoFilter ref="G2:H9" xr:uid="{D3A68182-B091-4C3B-96A2-80DBD72B2A45}"/>
   <tableColumns count="2">
@@ -968,7 +1075,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9B082C47-7C36-4049-9DA0-B81F5D17DBC0}" name="Table3" displayName="Table3" ref="J2:K3" totalsRowShown="0">
   <autoFilter ref="J2:K3" xr:uid="{9B082C47-7C36-4049-9DA0-B81F5D17DBC0}"/>
   <tableColumns count="2">
@@ -979,7 +1086,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0415D072-B3A6-4311-830E-FE9CDB8DA90B}" name="Table15" displayName="Table15" ref="A20:E29" totalsRowShown="0">
   <autoFilter ref="A20:E29" xr:uid="{0415D072-B3A6-4311-830E-FE9CDB8DA90B}"/>
   <tableColumns count="5">
@@ -993,7 +1100,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{ABD48B9B-73E5-4179-87DB-2214C861B633}" name="Table156" displayName="Table156" ref="G20:K25" totalsRowShown="0">
   <autoFilter ref="G20:K25" xr:uid="{ABD48B9B-73E5-4179-87DB-2214C861B633}"/>
   <tableColumns count="5">
@@ -1007,7 +1114,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{4CD3DAC9-E0B2-43D6-BE1B-AB58A120C6E2}" name="Table1511" displayName="Table1511" ref="A32:E42" totalsRowShown="0">
   <autoFilter ref="A32:E42" xr:uid="{4CD3DAC9-E0B2-43D6-BE1B-AB58A120C6E2}"/>
   <tableColumns count="5">
@@ -1021,7 +1128,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{AE7382F0-D995-42D7-A49B-5120AEEE6D92}" name="Table15612" displayName="Table15612" ref="G32:K37" totalsRowShown="0">
   <autoFilter ref="G32:K37" xr:uid="{AE7382F0-D995-42D7-A49B-5120AEEE6D92}"/>
   <tableColumns count="5">
@@ -1035,7 +1142,21 @@
 </table>
 </file>
 
-<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{26AC216C-CE45-47E1-926D-7F9E77DEE636}" name="Table2227" displayName="Table2227" ref="A10:E14" totalsRowShown="0" tableBorderDxfId="11" dataCellStyle="Normal">
+  <autoFilter ref="A10:E14" xr:uid="{26AC216C-CE45-47E1-926D-7F9E77DEE636}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{6C67288D-8418-4528-8E63-2E376B702A0A}" name="id" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{8089C1E6-FBA8-4435-BE7C-2A70B5142DB8}" name="Time" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{8601C5D9-C1C6-4212-A6E2-E47C6C92EB73}" name="Activity 1" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{0950AC38-7287-450A-B3E2-10259C8E0D2C}" name="Activity 2" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{124A7D1C-69DB-43FA-998B-84AAA33A2B69}" name="Deleted" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{674686D7-D346-457D-8E31-537620D69279}" name="Table12" displayName="Table12" ref="A10:E17" totalsRowShown="0">
   <autoFilter ref="A10:E17" xr:uid="{674686D7-D346-457D-8E31-537620D69279}"/>
   <tableColumns count="5">
@@ -1049,34 +1170,20 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{26AC216C-CE45-47E1-926D-7F9E77DEE636}" name="Table2227" displayName="Table2227" ref="A11:E15" totalsRowShown="0" tableBorderDxfId="8" dataCellStyle="Normal">
-  <autoFilter ref="A11:E15" xr:uid="{26AC216C-CE45-47E1-926D-7F9E77DEE636}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{6C67288D-8418-4528-8E63-2E376B702A0A}" name="id" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{8089C1E6-FBA8-4435-BE7C-2A70B5142DB8}" name="Time" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{8601C5D9-C1C6-4212-A6E2-E47C6C92EB73}" name="Activity 1" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{0950AC38-7287-450A-B3E2-10259C8E0D2C}" name="Activity 2" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{124A7D1C-69DB-43FA-998B-84AAA33A2B69}" name="Deleted" dataCellStyle="Normal"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{55CBADA6-0D02-47DE-9F96-E6F190F51D17}" name="Table392428" displayName="Table392428" ref="G11:H12" totalsRowShown="0">
-  <autoFilter ref="G11:H12" xr:uid="{55CBADA6-0D02-47DE-9F96-E6F190F51D17}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{55CBADA6-0D02-47DE-9F96-E6F190F51D17}" name="Table392428" displayName="Table392428" ref="G10:H11" totalsRowShown="0">
+  <autoFilter ref="G10:H11" xr:uid="{55CBADA6-0D02-47DE-9F96-E6F190F51D17}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{2B8D679D-A8C0-4800-AB87-9739CA299B6D}" name="From" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{918DEA73-BE07-4C67-B558-42308F5492D4}" name="To" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{2B8D679D-A8C0-4800-AB87-9739CA299B6D}" name="From" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{918DEA73-BE07-4C67-B558-42308F5492D4}" name="To" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{148D51AF-5E14-4843-888E-D4A58731A14C}" name="Table222729" displayName="Table222729" ref="A19:E22" totalsRowShown="0" tableBorderDxfId="5" dataCellStyle="Normal">
-  <autoFilter ref="A19:E22" xr:uid="{148D51AF-5E14-4843-888E-D4A58731A14C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{148D51AF-5E14-4843-888E-D4A58731A14C}" name="Table222729" displayName="Table222729" ref="A18:E21" totalsRowShown="0" tableBorderDxfId="8" dataCellStyle="Normal">
+  <autoFilter ref="A18:E21" xr:uid="{148D51AF-5E14-4843-888E-D4A58731A14C}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{1E8A003C-6999-4AB4-B5E7-18A2E49743A5}" name="id" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{60F7D491-7616-4FFE-A2AD-3A8C71543852}" name="Time" dataCellStyle="Normal"/>
@@ -1089,19 +1196,19 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{450594FF-16AE-4D5F-B840-52824FBED6F9}" name="Table39242830" displayName="Table39242830" ref="G19:H20" totalsRowShown="0">
-  <autoFilter ref="G19:H20" xr:uid="{450594FF-16AE-4D5F-B840-52824FBED6F9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{450594FF-16AE-4D5F-B840-52824FBED6F9}" name="Table39242830" displayName="Table39242830" ref="G18:H19" totalsRowShown="0">
+  <autoFilter ref="G18:H19" xr:uid="{450594FF-16AE-4D5F-B840-52824FBED6F9}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{F7308CED-34B2-4DAD-A89F-F4CC20D65358}" name="From" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{D2C5A42B-CAC2-4465-9F22-2760A7DF1588}" name="To" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{F7308CED-34B2-4DAD-A89F-F4CC20D65358}" name="From" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{D2C5A42B-CAC2-4465-9F22-2760A7DF1588}" name="To" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{FC019FDD-2033-4C62-8D89-44583C9C330E}" name="Table22272931" displayName="Table22272931" ref="A26:E30" totalsRowShown="0" tableBorderDxfId="2" dataCellStyle="Normal">
-  <autoFilter ref="A26:E30" xr:uid="{FC019FDD-2033-4C62-8D89-44583C9C330E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{FC019FDD-2033-4C62-8D89-44583C9C330E}" name="Table22272931" displayName="Table22272931" ref="A25:E29" totalsRowShown="0" tableBorderDxfId="5" dataCellStyle="Normal">
+  <autoFilter ref="A25:E29" xr:uid="{FC019FDD-2033-4C62-8D89-44583C9C330E}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5B7E6B1F-B61A-422A-BB53-BD97724A664D}" name="id" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{4F312F08-7C96-41D1-AA9C-CEC5F4CD7EA9}" name="Time" dataCellStyle="Normal"/>
@@ -1114,25 +1221,25 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{EE074F04-E651-4CDE-8449-1391ECA3DA5D}" name="Table3924283032" displayName="Table3924283032" ref="G26:H27" totalsRowShown="0">
-  <autoFilter ref="G26:H27" xr:uid="{EE074F04-E651-4CDE-8449-1391ECA3DA5D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{EE074F04-E651-4CDE-8449-1391ECA3DA5D}" name="Table3924283032" displayName="Table3924283032" ref="G25:H26" totalsRowShown="0">
+  <autoFilter ref="G25:H26" xr:uid="{EE074F04-E651-4CDE-8449-1391ECA3DA5D}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{9DC1CEF9-D1BF-4912-ABBF-5A524B273EFC}" name="From" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{4D8EC67B-2D3A-4D9B-BD9A-45022C870ECC}" name="To" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{9DC1CEF9-D1BF-4912-ABBF-5A524B273EFC}" name="From" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{4D8EC67B-2D3A-4D9B-BD9A-45022C870ECC}" name="To" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{67E13AC7-B4A3-4483-AC36-7D6B19503612}" name="Table17" displayName="Table17" ref="A2:E7" totalsRowShown="0">
-  <autoFilter ref="A2:E7" xr:uid="{917B3C9C-5CFA-46C1-8457-751BE23DBF67}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{22CCFD43-B819-49D9-AC6B-30F4DB8DCF4F}" name="Table2227293126" displayName="Table2227293126" ref="A33:E35" totalsRowShown="0" tableBorderDxfId="2" dataCellStyle="Normal">
+  <autoFilter ref="A33:E35" xr:uid="{22CCFD43-B819-49D9-AC6B-30F4DB8DCF4F}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{834A0EAE-78EB-4EF0-A1DE-74684BB04E6E}" name="id"/>
-    <tableColumn id="4" xr3:uid="{EE710C0E-8A93-4BAD-994E-D7D7BE1CA840}" name="Time"/>
-    <tableColumn id="2" xr3:uid="{F02C6818-D4CD-49B6-9E5B-8E32E4A46FED}" name="Activity 1"/>
-    <tableColumn id="3" xr3:uid="{B958165C-5857-4D46-8076-1A84D0D8B76F}" name="Activity 2"/>
-    <tableColumn id="5" xr3:uid="{E96CCE80-CBC1-4076-9EE6-8DC4EB867C36}" name="Deleted"/>
+    <tableColumn id="1" xr3:uid="{446A11B6-89B1-40AF-8DF1-613558082E9B}" name="id" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{5274A654-450D-4EB6-A168-0E1FC39F9DAD}" name="Time" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{C7AC8F92-ED44-4630-8203-592BB8C9D5BF}" name="Activity 1" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{1689F6E3-B889-4B97-98EF-15EE614C6BD4}" name="Activity 2" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{9D9CA8E8-F0EB-4D9F-A918-1F491BAE63AA}" name="Deleted" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1435,10 +1542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD881B02-8271-4F65-995B-7407D1D85D99}">
-  <dimension ref="A2:Q30"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1446,65 +1553,97 @@
     <col min="3" max="4" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+    </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
+      <c r="A2" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="G2" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="20"/>
+      <c r="L2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="G3" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="20"/>
-      <c r="L3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3">
+        <v>10</v>
+      </c>
+      <c r="M3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
+        <v>41</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="L4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M4" t="s">
         <v>4</v>
@@ -1512,31 +1651,25 @@
       <c r="O4" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" t="s">
-        <v>4</v>
+      <c r="P4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="14" t="s">
         <v>42</v>
       </c>
+      <c r="E5" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="L5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M5" t="s">
         <v>4</v>
@@ -1544,27 +1677,29 @@
       <c r="O5" t="s">
         <v>36</v>
       </c>
-      <c r="P5" t="s">
-        <v>37</v>
+      <c r="Q5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
+      <c r="C6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M6" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" t="s">
         <v>4</v>
       </c>
       <c r="O6" t="s">
@@ -1575,24 +1710,10 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="b">
-        <v>0</v>
-      </c>
       <c r="L7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M7" t="s">
-        <v>49</v>
-      </c>
-      <c r="N7" t="s">
         <v>4</v>
       </c>
       <c r="O7" t="s">
@@ -1603,90 +1724,90 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L8">
+      <c r="A8" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="G9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="M8" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="G10" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="20"/>
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12">
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -1694,218 +1815,221 @@
       <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="E13" t="b">
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>5</v>
-      </c>
-      <c r="B14">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1">
         <v>12</v>
       </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E14" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="1" t="b">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
+      <c r="A17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="G17" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="G18" s="20" t="s">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19">
         <v>14</v>
       </c>
-      <c r="H18" s="20"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
       <c r="C19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" t="s">
-        <v>18</v>
+        <v>36</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B20">
         <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B21">
         <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>47</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>8</v>
-      </c>
-      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="G24" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
+      <c r="H24" s="20"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="G25" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="20"/>
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>15</v>
+      <c r="A26">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" t="s">
-        <v>18</v>
+        <v>44</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B27">
         <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E27" t="b">
         <v>1</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B28">
         <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="D28" t="s">
+        <v>46</v>
       </c>
       <c r="E28" t="b">
         <v>1</v>
@@ -1913,53 +2037,121 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B29">
         <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>12</v>
-      </c>
-      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="G32" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="20"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
         <v>16</v>
       </c>
-      <c r="C30" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" t="b">
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>13</v>
+      </c>
+      <c r="B34">
+        <v>18</v>
+      </c>
+      <c r="C34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>14</v>
+      </c>
+      <c r="B35">
+        <v>18</v>
+      </c>
+      <c r="C35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="G25:H25"/>
+  <mergeCells count="16">
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A8:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="8">
+  <tableParts count="10">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -1968,6 +2160,8 @@
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1976,8 +2170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5FEA84F-E133-4B26-9C7E-F947F55A6435}">
   <dimension ref="A1:X56"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="M53" sqref="M53:Q53"/>
+    <sheetView topLeftCell="A40" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3393,18 +3587,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="G45:K45"/>
+    <mergeCell ref="M45:Q45"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="A44:X44"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A19:E19"/>
     <mergeCell ref="G19:K19"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="G45:K45"/>
-    <mergeCell ref="M45:Q45"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="A44:X44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="12">
@@ -4589,11 +4783,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="A31:E31"/>
     <mergeCell ref="G31:K31"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
@@ -4601,6 +4790,11 @@
     <mergeCell ref="A19:E19"/>
     <mergeCell ref="G19:K19"/>
     <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="A31:E31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="8">

--- a/Documentation/Design Analysis/ActivityChange RollbackAnalysis.xlsx
+++ b/Documentation/Design Analysis/ActivityChange RollbackAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theod\Documents\Git\WeeklyReview\Documentation\Design Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8FF2CF-6943-40AA-82C9-AB711970AC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DED9E74-390E-4936-A1A9-E35253162987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="15720" xr2:uid="{FC44FF1F-09FD-4F19-B1DB-BA525A069443}"/>
   </bookViews>
@@ -1544,8 +1544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD881B02-8271-4F65-995B-7407D1D85D99}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2133,6 +2133,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A8:H8"/>
     <mergeCell ref="A31:H31"/>
     <mergeCell ref="A32:E32"/>
     <mergeCell ref="G32:H32"/>
@@ -2142,13 +2149,6 @@
     <mergeCell ref="A23:H23"/>
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="G24:H24"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A8:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="10">
@@ -3587,18 +3587,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="G19:K19"/>
     <mergeCell ref="A45:E45"/>
     <mergeCell ref="G45:K45"/>
     <mergeCell ref="M45:Q45"/>
     <mergeCell ref="A31:E31"/>
     <mergeCell ref="G31:K31"/>
     <mergeCell ref="A44:X44"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="G19:K19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="12">
@@ -4783,6 +4783,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="A31:E31"/>
     <mergeCell ref="G31:K31"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
@@ -4790,11 +4795,6 @@
     <mergeCell ref="A19:E19"/>
     <mergeCell ref="G19:K19"/>
     <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="A31:E31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="8">
